--- a/src/main/resources/templates/ComboTemplate.xlsx
+++ b/src/main/resources/templates/ComboTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1504BB22-F743-42EF-B5E0-D896FA525A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06930C6-B8DD-46D0-906F-473979F89D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>连板梯队{{COMBO_1.sumCount}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,59 +238,64 @@
     <t>{{CX_2}}</t>
   </si>
   <si>
+    <t>{{CX_4}}</t>
+  </si>
+  <si>
+    <t>{{NAME_2}}</t>
+  </si>
+  <si>
+    <t>{{NAME_3}}</t>
+  </si>
+  <si>
+    <t>{{NAME_4}}</t>
+  </si>
+  <si>
+    <t>名字({{STOCK_NAME}})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{SMALL_1}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{CX_1}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{NAME_1}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{SMALL_5}}</t>
+  </si>
+  <si>
+    <t>{{CX_5}}</t>
+  </si>
+  <si>
+    <t>{{NAME_5}}</t>
+  </si>
+  <si>
+    <t>小黑屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百日新高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{{CX_3}}</t>
-  </si>
-  <si>
-    <t>{{CX_4}}</t>
-  </si>
-  <si>
-    <t>{{NAME_2}}</t>
-  </si>
-  <si>
-    <t>{{NAME_3}}</t>
-  </si>
-  <si>
-    <t>{{NAME_4}}</t>
-  </si>
-  <si>
-    <t>名字({{STOCK_NAME}})</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{SMALL_1}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{CX_1}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{NAME_1}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{SMALL_5}}</t>
-  </si>
-  <si>
-    <t>{{CX_5}}</t>
-  </si>
-  <si>
-    <t>{{NAME_5}}</t>
-  </si>
-  <si>
-    <t>小黑屋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百日新高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{MONITOR}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -397,9 +402,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -408,6 +410,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,7 +770,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -774,14 +782,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -823,105 +831,107 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="6" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="D6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="10" t="s">
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -1052,8 +1062,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C11:D11">

--- a/src/main/resources/templates/ComboTemplate.xlsx
+++ b/src/main/resources/templates/ComboTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06930C6-B8DD-46D0-906F-473979F89D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C838307-63F6-4B50-AE8D-D3B69296F1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>连板梯队{{COMBO_1.sumCount}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,27 +275,31 @@
     <t>{{NAME_5}}</t>
   </si>
   <si>
-    <t>小黑屋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百日新高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新债</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{{CX_3}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{{MONITOR}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑屋（还剩3天以内时注意）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近题材高标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{HIGH_STOCK}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管预警（10天内70%以上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{WARN_STOCK}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -415,6 +419,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -766,17 +773,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.75" style="1" customWidth="1"/>
     <col min="3" max="6" width="28.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="29.875" style="1"/>
   </cols>
@@ -862,7 +869,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>55</v>
@@ -893,181 +900,177 @@
     </row>
     <row r="7" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>38</v>
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="6" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C11:D11">
+  <conditionalFormatting sqref="C10:D10">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>
@@ -1075,7 +1078,7 @@
       <formula>"主线"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:D14">
+  <conditionalFormatting sqref="C13:D13">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>
@@ -1091,7 +1094,7 @@
       <formula>"主线"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:C17">
+  <conditionalFormatting sqref="B16:C16">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>

--- a/src/main/resources/templates/ComboTemplate.xlsx
+++ b/src/main/resources/templates/ComboTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C838307-63F6-4B50-AE8D-D3B69296F1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBC978F-D802-4D70-909B-5B7821F11317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>连板梯队{{COMBO_1.sumCount}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,30 @@
   </si>
   <si>
     <t>{{WARN_STOCK}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含zz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ZZ_1}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ZZ_2}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ZZ_3}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ZZ_4}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{ZZ_5}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -423,6 +447,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,11 +800,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -878,199 +905,219 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C10:D10">
+  <conditionalFormatting sqref="C11:D11">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>
@@ -1078,7 +1125,7 @@
       <formula>"主线"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:D13">
+  <conditionalFormatting sqref="C14:D14">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>
@@ -1094,7 +1141,7 @@
       <formula>"主线"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C16">
+  <conditionalFormatting sqref="B17:C17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>

--- a/src/main/resources/templates/ComboTemplate.xlsx
+++ b/src/main/resources/templates/ComboTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBC978F-D802-4D70-909B-5B7821F11317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D80E2C-15ED-49D1-A5BE-BC381FC8A138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>连板梯队{{COMBO_1.sumCount}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,14 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>监管预警（10天内70%以上）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{WARN_STOCK}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>含zz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +316,30 @@
   </si>
   <si>
     <t>{{ZZ_5}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{20_1}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{20_2}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{20_3}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{20_4}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{20_5}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,17 +455,17 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,7 +820,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -816,14 +832,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -905,24 +921,24 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -949,37 +965,45 @@
       <c r="A8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -1110,11 +1134,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C11:D11">

--- a/src/main/resources/templates/ComboTemplate.xlsx
+++ b/src/main/resources/templates/ComboTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\workSpace\springCloud20200115\springBootDemo\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D80E2C-15ED-49D1-A5BE-BC381FC8A138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976D7758-A97B-4B76-B927-569642BC07D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -973,7 +973,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
@@ -1140,35 +1140,35 @@
     <mergeCell ref="B9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C11:D11">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+  <conditionalFormatting sqref="B17:C17">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"主线"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:D2">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"大环境"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"主线"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:D11">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"大环境"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"主线"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D14">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"大环境"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"主线"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:D2">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"大环境"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"主线"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"大环境"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"主线"</formula>
     </cfRule>
   </conditionalFormatting>
